--- a/Projects/SQL_case_study/Sql_case_study_analysis.xlsx
+++ b/Projects/SQL_case_study/Sql_case_study_analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham Patel\Desktop\DS\Projects\Target- SQL Business Case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham Patel\Desktop\DS\Git-AI For All\GitHub New Repo\DS-ML\Projects\SQL_case_study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08B8B30-E504-491A-85DE-2D216AC22909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F719083-947C-4749-BE21-296D5AD92B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{4D5224E1-CB1D-4D9C-A959-F0F834536E6C}"/>
   </bookViews>
@@ -26,20 +26,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4274" uniqueCount="4161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4275" uniqueCount="4162">
   <si>
     <t>Price_in_milions</t>
   </si>
@@ -12522,6 +12514,9 @@
   </si>
   <si>
     <t>Month</t>
+  </si>
+  <si>
+    <t>Sql</t>
   </si>
 </sst>
 </file>
@@ -12597,7 +12592,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -12613,12 +12608,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -21161,8 +21155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413582BC-B215-4D54-83C2-EF7BC85377B2}">
   <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C33" workbookViewId="0">
-      <selection activeCell="T49" sqref="T49"/>
+    <sheetView tabSelected="1" topLeftCell="C50" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21270,13 +21264,10 @@
       <c r="G6" s="8">
         <v>201609</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6">
         <v>3</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9">
+      <c r="L6">
         <v>3</v>
       </c>
     </row>
@@ -21293,19 +21284,19 @@
       <c r="G7" s="8">
         <v>201610</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7">
         <v>254</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7">
         <v>2</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7">
         <v>63</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7">
         <v>23</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7">
         <v>342</v>
       </c>
     </row>
@@ -21322,13 +21313,10 @@
       <c r="G8" s="8">
         <v>201612</v>
       </c>
-      <c r="H8" s="9">
-        <v>1</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9">
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>1</v>
       </c>
     </row>
@@ -21345,19 +21333,19 @@
       <c r="G9" s="8">
         <v>201701</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9">
         <v>583</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9">
         <v>9</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9">
         <v>197</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9">
         <v>61</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9">
         <v>850</v>
       </c>
     </row>
@@ -21374,19 +21362,19 @@
       <c r="G10" s="8">
         <v>201702</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10">
         <v>1356</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10">
         <v>13</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10">
         <v>398</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10">
         <v>119</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10">
         <v>1886</v>
       </c>
     </row>
@@ -21403,19 +21391,19 @@
       <c r="G11" s="8">
         <v>201703</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11">
         <v>2016</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11">
         <v>31</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11">
         <v>590</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11">
         <v>200</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11">
         <v>2837</v>
       </c>
     </row>
@@ -21432,19 +21420,19 @@
       <c r="G12" s="8">
         <v>201704</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12">
         <v>1846</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12">
         <v>27</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12">
         <v>496</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12">
         <v>202</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12">
         <v>2571</v>
       </c>
     </row>
@@ -21461,19 +21449,19 @@
       <c r="G13" s="8">
         <v>201705</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13">
         <v>2853</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13">
         <v>30</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13">
         <v>772</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13">
         <v>289</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13">
         <v>3944</v>
       </c>
     </row>
@@ -21490,19 +21478,19 @@
       <c r="G14" s="8">
         <v>201706</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14">
         <v>2463</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14">
         <v>27</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14">
         <v>707</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14">
         <v>239</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14">
         <v>3436</v>
       </c>
     </row>
@@ -21519,19 +21507,19 @@
       <c r="G15" s="8">
         <v>201707</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15">
         <v>3086</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15">
         <v>22</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15">
         <v>845</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15">
         <v>364</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15">
         <v>4317</v>
       </c>
     </row>
@@ -21548,19 +21536,19 @@
       <c r="G16" s="8">
         <v>201708</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16">
         <v>3284</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16">
         <v>34</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16">
         <v>938</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16">
         <v>294</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16">
         <v>4550</v>
       </c>
     </row>
@@ -21577,19 +21565,19 @@
       <c r="G17" s="8">
         <v>201709</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17">
         <v>3283</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17">
         <v>43</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17">
         <v>903</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17">
         <v>287</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17">
         <v>4516</v>
       </c>
     </row>
@@ -21606,19 +21594,19 @@
       <c r="G18" s="8">
         <v>201710</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18">
         <v>3524</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18">
         <v>52</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18">
         <v>993</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18">
         <v>291</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18">
         <v>4860</v>
       </c>
     </row>
@@ -21635,19 +21623,19 @@
       <c r="G19" s="8">
         <v>201711</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19">
         <v>5897</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19">
         <v>70</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19">
         <v>1509</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19">
         <v>387</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19">
         <v>7863</v>
       </c>
     </row>
@@ -21664,19 +21652,19 @@
       <c r="G20" s="8">
         <v>201712</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20">
         <v>4377</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20">
         <v>64</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20">
         <v>1160</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20">
         <v>294</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20">
         <v>5895</v>
       </c>
     </row>
@@ -21693,19 +21681,19 @@
       <c r="G21" s="8">
         <v>201801</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21">
         <v>5520</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21">
         <v>109</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21">
         <v>1518</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21">
         <v>416</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21">
         <v>7563</v>
       </c>
     </row>
@@ -21722,19 +21710,19 @@
       <c r="G22" s="8">
         <v>201802</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22">
         <v>5253</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22">
         <v>69</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22">
         <v>1325</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22">
         <v>305</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22">
         <v>6952</v>
       </c>
     </row>
@@ -21751,19 +21739,19 @@
       <c r="G23" s="8">
         <v>201803</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23">
         <v>5691</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23">
         <v>78</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23">
         <v>1352</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K23">
         <v>391</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23">
         <v>7512</v>
       </c>
     </row>
@@ -21780,19 +21768,19 @@
       <c r="G24" s="8">
         <v>201804</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24">
         <v>5455</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24">
         <v>97</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24">
         <v>1287</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24">
         <v>370</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L24">
         <v>7209</v>
       </c>
     </row>
@@ -21809,19 +21797,19 @@
       <c r="G25" s="8">
         <v>201805</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25">
         <v>5497</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25">
         <v>51</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25">
         <v>1263</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K25">
         <v>324</v>
       </c>
-      <c r="L25" s="9">
+      <c r="L25">
         <v>7135</v>
       </c>
     </row>
@@ -21838,19 +21826,19 @@
       <c r="G26" s="8">
         <v>201806</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26">
         <v>4813</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26">
         <v>182</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26">
         <v>1100</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K26">
         <v>324</v>
       </c>
-      <c r="L26" s="9">
+      <c r="L26">
         <v>6419</v>
       </c>
     </row>
@@ -21867,19 +21855,19 @@
       <c r="G27" s="8">
         <v>201807</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27">
         <v>4755</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27">
         <v>242</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J27">
         <v>1229</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K27">
         <v>281</v>
       </c>
-      <c r="L27" s="9">
+      <c r="L27">
         <v>6507</v>
       </c>
     </row>
@@ -21896,19 +21884,19 @@
       <c r="G28" s="8">
         <v>201808</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28">
         <v>4985</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28">
         <v>277</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28">
         <v>1139</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K28">
         <v>295</v>
       </c>
-      <c r="L28" s="9">
+      <c r="L28">
         <v>6696</v>
       </c>
     </row>
@@ -21925,13 +21913,10 @@
       <c r="G29" s="8">
         <v>201809</v>
       </c>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9">
+      <c r="K29">
         <v>15</v>
       </c>
-      <c r="L29" s="9">
+      <c r="L29">
         <v>15</v>
       </c>
     </row>
@@ -21948,13 +21933,10 @@
       <c r="G30" s="8">
         <v>201810</v>
       </c>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9">
+      <c r="K30">
         <v>4</v>
       </c>
-      <c r="L30" s="9">
+      <c r="L30">
         <v>4</v>
       </c>
     </row>
@@ -21971,19 +21953,19 @@
       <c r="G31" s="8" t="s">
         <v>4156</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31">
         <v>76795</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31">
         <v>1529</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31">
         <v>19784</v>
       </c>
-      <c r="K31" s="9">
+      <c r="K31">
         <v>5775</v>
       </c>
-      <c r="L31" s="9">
+      <c r="L31">
         <v>103883</v>
       </c>
     </row>
@@ -22030,7 +22012,7 @@
       <c r="C35">
         <v>22</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G35" s="9" t="s">
         <v>4159</v>
       </c>
     </row>
@@ -22071,23 +22053,23 @@
         <v>938</v>
       </c>
       <c r="G37">
-        <f>G9</f>
+        <f t="shared" ref="G37:K46" si="0">G9</f>
         <v>201701</v>
       </c>
       <c r="H37">
-        <f>H9</f>
+        <f t="shared" si="0"/>
         <v>583</v>
       </c>
       <c r="I37">
-        <f>I9</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="J37">
-        <f>J9</f>
+        <f t="shared" si="0"/>
         <v>197</v>
       </c>
       <c r="K37">
-        <f>K9</f>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
     </row>
@@ -22102,23 +22084,23 @@
         <v>294</v>
       </c>
       <c r="G38">
-        <f>G10</f>
+        <f t="shared" si="0"/>
         <v>201702</v>
       </c>
       <c r="H38">
-        <f>H10</f>
+        <f t="shared" si="0"/>
         <v>1356</v>
       </c>
       <c r="I38">
-        <f>I10</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="J38">
-        <f>J10</f>
+        <f t="shared" si="0"/>
         <v>398</v>
       </c>
       <c r="K38">
-        <f>K10</f>
+        <f t="shared" si="0"/>
         <v>119</v>
       </c>
     </row>
@@ -22133,23 +22115,23 @@
         <v>34</v>
       </c>
       <c r="G39">
-        <f>G11</f>
+        <f t="shared" si="0"/>
         <v>201703</v>
       </c>
       <c r="H39">
-        <f>H11</f>
+        <f t="shared" si="0"/>
         <v>2016</v>
       </c>
       <c r="I39">
-        <f>I11</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="J39">
-        <f>J11</f>
+        <f t="shared" si="0"/>
         <v>590</v>
       </c>
       <c r="K39">
-        <f>K11</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
     </row>
@@ -22164,23 +22146,23 @@
         <v>3283</v>
       </c>
       <c r="G40">
-        <f>G12</f>
+        <f t="shared" si="0"/>
         <v>201704</v>
       </c>
       <c r="H40">
-        <f>H12</f>
+        <f t="shared" si="0"/>
         <v>1846</v>
       </c>
       <c r="I40">
-        <f>I12</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="J40">
-        <f>J12</f>
+        <f t="shared" si="0"/>
         <v>496</v>
       </c>
       <c r="K40">
-        <f>K12</f>
+        <f t="shared" si="0"/>
         <v>202</v>
       </c>
     </row>
@@ -22195,23 +22177,23 @@
         <v>903</v>
       </c>
       <c r="G41">
-        <f>G13</f>
+        <f t="shared" si="0"/>
         <v>201705</v>
       </c>
       <c r="H41">
-        <f>H13</f>
+        <f t="shared" si="0"/>
         <v>2853</v>
       </c>
       <c r="I41">
-        <f>I13</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="J41">
-        <f>J13</f>
+        <f t="shared" si="0"/>
         <v>772</v>
       </c>
       <c r="K41">
-        <f>K13</f>
+        <f t="shared" si="0"/>
         <v>289</v>
       </c>
     </row>
@@ -22226,23 +22208,23 @@
         <v>287</v>
       </c>
       <c r="G42">
-        <f>G14</f>
+        <f t="shared" si="0"/>
         <v>201706</v>
       </c>
       <c r="H42">
-        <f>H14</f>
+        <f t="shared" si="0"/>
         <v>2463</v>
       </c>
       <c r="I42">
-        <f>I14</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="J42">
-        <f>J14</f>
+        <f t="shared" si="0"/>
         <v>707</v>
       </c>
       <c r="K42">
-        <f>K14</f>
+        <f t="shared" si="0"/>
         <v>239</v>
       </c>
     </row>
@@ -22257,23 +22239,23 @@
         <v>43</v>
       </c>
       <c r="G43">
-        <f>G15</f>
+        <f t="shared" si="0"/>
         <v>201707</v>
       </c>
       <c r="H43">
-        <f>H15</f>
+        <f t="shared" si="0"/>
         <v>3086</v>
       </c>
       <c r="I43">
-        <f>I15</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="J43">
-        <f>J15</f>
+        <f t="shared" si="0"/>
         <v>845</v>
       </c>
       <c r="K43">
-        <f>K15</f>
+        <f t="shared" si="0"/>
         <v>364</v>
       </c>
     </row>
@@ -22288,23 +22270,23 @@
         <v>3524</v>
       </c>
       <c r="G44">
-        <f>G16</f>
+        <f t="shared" si="0"/>
         <v>201708</v>
       </c>
       <c r="H44">
-        <f>H16</f>
+        <f t="shared" si="0"/>
         <v>3284</v>
       </c>
       <c r="I44">
-        <f>I16</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="J44">
-        <f>J16</f>
+        <f t="shared" si="0"/>
         <v>938</v>
       </c>
       <c r="K44">
-        <f>K16</f>
+        <f t="shared" si="0"/>
         <v>294</v>
       </c>
     </row>
@@ -22319,23 +22301,23 @@
         <v>993</v>
       </c>
       <c r="G45">
-        <f>G17</f>
+        <f t="shared" si="0"/>
         <v>201709</v>
       </c>
       <c r="H45">
-        <f>H17</f>
+        <f t="shared" si="0"/>
         <v>3283</v>
       </c>
       <c r="I45">
-        <f>I17</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="J45">
-        <f>J17</f>
+        <f t="shared" si="0"/>
         <v>903</v>
       </c>
       <c r="K45">
-        <f>K17</f>
+        <f t="shared" si="0"/>
         <v>287</v>
       </c>
     </row>
@@ -22350,23 +22332,23 @@
         <v>291</v>
       </c>
       <c r="G46">
-        <f>G18</f>
+        <f t="shared" si="0"/>
         <v>201710</v>
       </c>
       <c r="H46">
-        <f>H18</f>
+        <f t="shared" si="0"/>
         <v>3524</v>
       </c>
       <c r="I46">
-        <f>I18</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="J46">
-        <f>J18</f>
+        <f t="shared" si="0"/>
         <v>993</v>
       </c>
       <c r="K46">
-        <f>K18</f>
+        <f t="shared" si="0"/>
         <v>291</v>
       </c>
     </row>
@@ -22381,23 +22363,23 @@
         <v>52</v>
       </c>
       <c r="G47">
-        <f>G19</f>
+        <f t="shared" ref="G47:K56" si="1">G19</f>
         <v>201711</v>
       </c>
       <c r="H47">
-        <f>H19</f>
+        <f t="shared" si="1"/>
         <v>5897</v>
       </c>
       <c r="I47">
-        <f>I19</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="J47">
-        <f>J19</f>
+        <f t="shared" si="1"/>
         <v>1509</v>
       </c>
       <c r="K47">
-        <f>K19</f>
+        <f t="shared" si="1"/>
         <v>387</v>
       </c>
     </row>
@@ -22412,23 +22394,23 @@
         <v>5897</v>
       </c>
       <c r="G48">
-        <f>G20</f>
+        <f t="shared" si="1"/>
         <v>201712</v>
       </c>
       <c r="H48">
-        <f>H20</f>
+        <f t="shared" si="1"/>
         <v>4377</v>
       </c>
       <c r="I48">
-        <f>I20</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="J48">
-        <f>J20</f>
+        <f t="shared" si="1"/>
         <v>1160</v>
       </c>
       <c r="K48">
-        <f>K20</f>
+        <f t="shared" si="1"/>
         <v>294</v>
       </c>
     </row>
@@ -22443,23 +22425,23 @@
         <v>1509</v>
       </c>
       <c r="G49">
-        <f>G21</f>
+        <f t="shared" si="1"/>
         <v>201801</v>
       </c>
       <c r="H49">
-        <f>H21</f>
+        <f t="shared" si="1"/>
         <v>5520</v>
       </c>
       <c r="I49">
-        <f>I21</f>
+        <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="J49">
-        <f>J21</f>
+        <f t="shared" si="1"/>
         <v>1518</v>
       </c>
       <c r="K49">
-        <f>K21</f>
+        <f t="shared" si="1"/>
         <v>416</v>
       </c>
     </row>
@@ -22474,23 +22456,23 @@
         <v>387</v>
       </c>
       <c r="G50">
-        <f>G22</f>
+        <f t="shared" si="1"/>
         <v>201802</v>
       </c>
       <c r="H50">
-        <f>H22</f>
+        <f t="shared" si="1"/>
         <v>5253</v>
       </c>
       <c r="I50">
-        <f>I22</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="J50">
-        <f>J22</f>
+        <f t="shared" si="1"/>
         <v>1325</v>
       </c>
       <c r="K50">
-        <f>K22</f>
+        <f t="shared" si="1"/>
         <v>305</v>
       </c>
     </row>
@@ -22505,23 +22487,23 @@
         <v>70</v>
       </c>
       <c r="G51">
-        <f>G23</f>
+        <f t="shared" si="1"/>
         <v>201803</v>
       </c>
       <c r="H51">
-        <f>H23</f>
+        <f t="shared" si="1"/>
         <v>5691</v>
       </c>
       <c r="I51">
-        <f>I23</f>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="J51">
-        <f>J23</f>
+        <f t="shared" si="1"/>
         <v>1352</v>
       </c>
       <c r="K51">
-        <f>K23</f>
+        <f t="shared" si="1"/>
         <v>391</v>
       </c>
     </row>
@@ -22536,23 +22518,23 @@
         <v>4377</v>
       </c>
       <c r="G52">
-        <f>G24</f>
+        <f t="shared" si="1"/>
         <v>201804</v>
       </c>
       <c r="H52">
-        <f>H24</f>
+        <f t="shared" si="1"/>
         <v>5455</v>
       </c>
       <c r="I52">
-        <f>I24</f>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="J52">
-        <f>J24</f>
+        <f t="shared" si="1"/>
         <v>1287</v>
       </c>
       <c r="K52">
-        <f>K24</f>
+        <f t="shared" si="1"/>
         <v>370</v>
       </c>
     </row>
@@ -22567,23 +22549,23 @@
         <v>1160</v>
       </c>
       <c r="G53">
-        <f>G25</f>
+        <f t="shared" si="1"/>
         <v>201805</v>
       </c>
       <c r="H53">
-        <f>H25</f>
+        <f t="shared" si="1"/>
         <v>5497</v>
       </c>
       <c r="I53">
-        <f>I25</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="J53">
-        <f>J25</f>
+        <f t="shared" si="1"/>
         <v>1263</v>
       </c>
       <c r="K53">
-        <f>K25</f>
+        <f t="shared" si="1"/>
         <v>324</v>
       </c>
     </row>
@@ -22598,23 +22580,23 @@
         <v>294</v>
       </c>
       <c r="G54">
-        <f>G26</f>
+        <f t="shared" si="1"/>
         <v>201806</v>
       </c>
       <c r="H54">
-        <f>H26</f>
+        <f t="shared" si="1"/>
         <v>4813</v>
       </c>
       <c r="I54">
-        <f>I26</f>
+        <f t="shared" si="1"/>
         <v>182</v>
       </c>
       <c r="J54">
-        <f>J26</f>
+        <f t="shared" si="1"/>
         <v>1100</v>
       </c>
       <c r="K54">
-        <f>K26</f>
+        <f t="shared" si="1"/>
         <v>324</v>
       </c>
     </row>
@@ -22629,23 +22611,23 @@
         <v>64</v>
       </c>
       <c r="G55">
-        <f>G27</f>
+        <f t="shared" si="1"/>
         <v>201807</v>
       </c>
       <c r="H55">
-        <f>H27</f>
+        <f t="shared" si="1"/>
         <v>4755</v>
       </c>
       <c r="I55">
-        <f>I27</f>
+        <f t="shared" si="1"/>
         <v>242</v>
       </c>
       <c r="J55">
-        <f>J27</f>
+        <f t="shared" si="1"/>
         <v>1229</v>
       </c>
       <c r="K55">
-        <f>K27</f>
+        <f t="shared" si="1"/>
         <v>281</v>
       </c>
     </row>
@@ -22660,23 +22642,23 @@
         <v>5520</v>
       </c>
       <c r="G56">
-        <f>G28</f>
+        <f t="shared" si="1"/>
         <v>201808</v>
       </c>
       <c r="H56">
-        <f>H28</f>
+        <f t="shared" si="1"/>
         <v>4985</v>
       </c>
       <c r="I56">
-        <f>I28</f>
+        <f t="shared" si="1"/>
         <v>277</v>
       </c>
       <c r="J56">
-        <f>J28</f>
+        <f t="shared" si="1"/>
         <v>1139</v>
       </c>
       <c r="K56">
-        <f>K28</f>
+        <f t="shared" si="1"/>
         <v>295</v>
       </c>
     </row>
@@ -22723,11 +22705,11 @@
       <c r="C60">
         <v>5253</v>
       </c>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
@@ -22739,11 +22721,11 @@
       <c r="C61">
         <v>1325</v>
       </c>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
@@ -22776,6 +22758,9 @@
       </c>
       <c r="C64">
         <v>5691</v>
+      </c>
+      <c r="H64" t="s">
+        <v>4161</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
